--- a/Phase 2 Workflow/Work_experience_final.xlsx
+++ b/Phase 2 Workflow/Work_experience_final.xlsx
@@ -1,26 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://humberital-my.sharepoint.com/personal/n01609495_humber_ca/Documents/Desktop/LLM_Resume_EDA_and_Parsing/Phase 2 Workflow/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://humberital-my.sharepoint.com/personal/n01780947_humber_ca/Documents/Documents/Repos/resume_parsing_audit_study/Phase 2 Workflow/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="14_{519D709A-7348-4791-85D9-42DC6557EFEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="134" documentId="14_{519D709A-7348-4791-85D9-42DC6557EFEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{75099857-A43A-4625-9411-7BBFA456F289}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="20928" windowHeight="12432" xr2:uid="{F929314B-E2D9-44EB-8873-0EDF8DB6140F}"/>
+    <workbookView xWindow="-23148" yWindow="8640" windowWidth="23256" windowHeight="13896" xr2:uid="{F929314B-E2D9-44EB-8873-0EDF8DB6140F}"/>
   </bookViews>
   <sheets>
     <sheet name="Work_experience_final" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="523" uniqueCount="286">
   <si>
     <t>treatment_pk</t>
   </si>
@@ -52,140 +65,839 @@
     <t>ITC</t>
   </si>
   <si>
-    <t>Non-Profit Procurement &amp; Contract Management Database</t>
-  </si>
-  <si>
-    <t>CMHA Durham</t>
-  </si>
-  <si>
-    <t>4 weeks</t>
-  </si>
-  <si>
-    <t>Oshawa, Ontario</t>
-  </si>
-  <si>
-    <t>Designed and implemented a database to streamline procurement processes, improving efficiency by 20%.</t>
-  </si>
-  <si>
-    <t>Collaborated with cross-functional teams to ensure data accuracy and user accessibility.</t>
-  </si>
-  <si>
-    <t>Developed user training materials to support staff adoption of the new system.</t>
-  </si>
-  <si>
-    <t>Optimized contract management workflows through a custom database solution, reducing processing time.</t>
-  </si>
-  <si>
-    <t>Conducted data migration and validation to ensure seamless transition to the new system.</t>
-  </si>
-  <si>
-    <t>Presented system benefits to stakeholders, securing buy-in for organization-wide adoption.</t>
-  </si>
-  <si>
-    <t>Enhanced database functionality with automated reporting features, saving 10 hours weekly.</t>
-  </si>
-  <si>
-    <t>Integrated security protocols to protect sensitive procurement data.</t>
-  </si>
-  <si>
-    <t>Provided ongoing technical support, resolving 95% of user issues within 24 hours.</t>
-  </si>
-  <si>
-    <t>Prospective CRM Evaluative Study</t>
-  </si>
-  <si>
-    <t>Carnival Guide</t>
-  </si>
-  <si>
     <t>Toronto, Ontario</t>
   </si>
   <si>
-    <t>Evaluated three CRM platforms, identifying the optimal solution for organizational needs.</t>
-  </si>
-  <si>
-    <t>Conducted cost-benefit analysis, recommending a CRM that reduced operational costs by 15%.</t>
-  </si>
-  <si>
-    <t>Developed a detailed implementation plan to ensure smooth CRM adoption.</t>
-  </si>
-  <si>
-    <t>Analyzed CRM user requirements through stakeholder interviews, improving system alignment.</t>
-  </si>
-  <si>
-    <t>Created a comparative report on CRM features, enhancing decision-making for leadership.</t>
-  </si>
-  <si>
-    <t>Proposed integration strategies to connect CRM with existing marketing tools.</t>
-  </si>
-  <si>
-    <t>Information Technology Program Plan</t>
-  </si>
-  <si>
-    <t>Ecomtent</t>
-  </si>
-  <si>
-    <t>Developed a strategic IT roadmap to support organizational growth and scalability.</t>
-  </si>
-  <si>
-    <t>Identified and prioritized key IT initiatives, aligning with business objectives.</t>
-  </si>
-  <si>
-    <t>Designed a budget-conscious plan, reducing projected IT costs by 10%.</t>
-  </si>
-  <si>
-    <t>Crafted a comprehensive IT program plan, enhancing system reliability and performance.</t>
-  </si>
-  <si>
-    <t>Conducted risk assessments to mitigate potential IT infrastructure challenges.</t>
-  </si>
-  <si>
-    <t>Collaborated with stakeholders to align IT solutions with long-term business goals.</t>
-  </si>
-  <si>
-    <t>Formulated an IT plan to integrate cloud-based solutions, improving operational agility.</t>
-  </si>
-  <si>
-    <t>Streamlined IT processes, reducing system downtime by 25%.</t>
-  </si>
-  <si>
-    <t>Delivered a stakeholder presentation to secure approval for proposed IT initiatives.</t>
-  </si>
-  <si>
-    <t>IT Connections &amp; Insights + IT Project - CRM Evaluation and Website Automation 2</t>
-  </si>
-  <si>
-    <t>ReconciliActionS Inc</t>
-  </si>
-  <si>
-    <t>Ottawa, Ontario</t>
-  </si>
-  <si>
-    <t>Evaluated CRM systems, recommending a solution that improved customer data management.</t>
-  </si>
-  <si>
-    <t>Automated website processes, increasing user engagement by 30%.</t>
-  </si>
-  <si>
-    <t>Built stakeholder relationships to align IT solutions with organizational priorities.</t>
-  </si>
-  <si>
-    <t>IT Connections &amp; Insights + IT Project - CRM Evaluation and Website Automation 3</t>
-  </si>
-  <si>
-    <t>Implemented website automation tools, reducing manual updates by 40%.</t>
-  </si>
-  <si>
-    <t>Conducted CRM usability testing, enhancing user satisfaction scores by 15%.</t>
-  </si>
-  <si>
-    <t>Facilitated IT workshops to foster cross-team collaboration and knowledge sharing.</t>
+    <t>Position</t>
+  </si>
+  <si>
+    <t>CCC</t>
+  </si>
+  <si>
+    <t>Cloud AI Integration Intern</t>
+  </si>
+  <si>
+    <t>Integrating AI and Cloud Infrastructure for Enhanced Asset Management</t>
+  </si>
+  <si>
+    <t>Gluu</t>
+  </si>
+  <si>
+    <t>Engineered and configured a scalable Amazon EC2 instance to serve as the backbone for integrating advanced AI models, directly enabling real-time asset condition reporting.</t>
+  </si>
+  <si>
+    <t>Successfully integrated the Dify AI Bot with a Supabase backend and Vercel front-end, establishing a robust, full-stack data pipeline for a multi-modal AI asset management system.</t>
+  </si>
+  <si>
+    <t>Led the development and refinement of a prototype watch classification model within AWS SageMaker, improving brand identification accuracy and providing actionable data for asset tracking.</t>
+  </si>
+  <si>
+    <t>Cloud Infrastructure Intern</t>
+  </si>
+  <si>
+    <t>Performed a critical update and reconfiguration of a production Amazon EC2 instance, ensuring high availability and robust support for newly deployed cloud services and AI integrations.</t>
+  </si>
+  <si>
+    <t>Architected and validated the communication pathways between the Supabase database and the Vercel front-end interface, ensuring low-latency data retrieval and a responsive user experience.</t>
+  </si>
+  <si>
+    <t>Authored a comprehensive technical report and presented findings on model optimization techniques, creating a knowledge base that guided future cloud infrastructure and AI integration strategies.</t>
+  </si>
+  <si>
+    <t>AI Data Management Intern</t>
+  </si>
+  <si>
+    <t>Managed and structured the complex data flows for a multi-modal AI model, ensuring the integrity and quality of data used for real-time machine learning and asset condition reporting.</t>
+  </si>
+  <si>
+    <t>Played a key role in the development of a refined AI prototype by curating and preparing datasets in AWS SageMaker, which directly contributed to a significant improvement in watch classification accuracy.</t>
+  </si>
+  <si>
+    <t>Diligently documented all data management processes, configurations, and scripts within AWS SageMaker, promoting transparency, reproducibility, and collaborative development for future project phases.</t>
+  </si>
+  <si>
+    <t>AR Platform Architect Intern</t>
+  </si>
+  <si>
+    <t>Re-Architecting ARCortex's Unity-Based AR Platform</t>
+  </si>
+  <si>
+    <t>ARCortex</t>
+  </si>
+  <si>
+    <t>Designed a novel, scalable architecture for an immersive AR/VR platform by leveraging agent-based computing and generative AI, reducing human development effort and increasing creative flexibility.</t>
+  </si>
+  <si>
+    <t>Developed the specifications for a Model Context Protocol (MCP) and an Agent-to-Agent (A2A) protocol, creating a foundational system for modular agent coordination and seamless composability.</t>
+  </si>
+  <si>
+    <t>Authored a detailed evaluation report comparing scene-based versus video-based authoring workflows, providing critical data that informed the strategic direction for optimizing performance and user engagement.</t>
+  </si>
+  <si>
+    <t>Generative AI Developer Intern</t>
+  </si>
+  <si>
+    <t>Implemented a functional prototype that integrated no-code pipelines with AI-driven scene generation, successfully demonstrating a new paradigm that drastically reduces manual development and authoring time.</t>
+  </si>
+  <si>
+    <t>Leveraged emerging physics-based AI models to simulate complex, realistic interactions within AR environments, eliminating the need for manual tuning and enhancing the immersive experience.</t>
+  </si>
+  <si>
+    <t>Built and presented a complete end-to-end demonstration system that showcased the workflow from a high-level user prompt to a fully deployed, dynamic, and immersive AR/VR experience.</t>
+  </si>
+  <si>
+    <t>Cloud Asset Management Intern</t>
+  </si>
+  <si>
+    <t>Cloud Based Asset Management</t>
+  </si>
+  <si>
+    <t>Beaches and Trails Publishing</t>
+  </si>
+  <si>
+    <t>Designed and deployed a scalable, cloud-based folder and file system to organize and manage thousands of digital assets for over 300 unique book titles, enhancing operational efficiency.</t>
+  </si>
+  <si>
+    <t>Engineered the integration between the cloud storage system and a central Notion database, creating a single source of truth for all marketing metadata, including descriptions, links, and promotional content.</t>
+  </si>
+  <si>
+    <t>Developed and delivered a comprehensive user guide and training materials for system maintenance and updates, which ensured high user adoption and the long-term success of the asset management strategy.</t>
+  </si>
+  <si>
+    <t>Digital Operations Intern</t>
+  </si>
+  <si>
+    <t>Identified and implemented a cloud-based digital asset management solution that unlocked passive marketing opportunities and streamlined content workflows for the company's entire 300+ title catalogue.</t>
+  </si>
+  <si>
+    <t>Automated the linkage between book title assets and their corresponding marketing metadata in a Notion database, significantly reducing manual data entry and ensuring content consistency across platforms.</t>
+  </si>
+  <si>
+    <t>Collaborated directly with the publishing and marketing teams to analyze their workflows, translating business requirements into a technical solution that improved cross-functional team productivity and efficiency.</t>
+  </si>
+  <si>
+    <t>EEC</t>
+  </si>
+  <si>
+    <t>Product Analysis Intern</t>
+  </si>
+  <si>
+    <t>Competitive Product Analysis for Linear Actuators</t>
+  </si>
+  <si>
+    <t>Progressive Automation</t>
+  </si>
+  <si>
+    <t>Waterloo, Ontario</t>
+  </si>
+  <si>
+    <t>Conducted a comprehensive technical analysis of competitor linear actuators, reverse-engineering key performance metrics, material specifications, and compatibility standards.</t>
+  </si>
+  <si>
+    <t>Developed a detailed and strategic product replacement chart to serve as a critical tool for R&amp;D, sales, and marketing teams, identifying market gaps and opportunities.</t>
+  </si>
+  <si>
+    <t>Authored a summary report and delivered a technical presentation to company stakeholders, providing actionable insights that directly informed future product development and strategic positioning.</t>
+  </si>
+  <si>
+    <t>Competitive Intelligence Intern</t>
+  </si>
+  <si>
+    <t>Performed an in-depth market analysis of the automation industry, focusing on competitor product lines to establish a baseline for performance and feature comparisons.</t>
+  </si>
+  <si>
+    <t>Created a strategic business metrics framework to evaluate the technical and commercial viability of competitor products against the company's existing product line.</t>
+  </si>
+  <si>
+    <t>Collaborated with the engineering team to translate technical specifications into clear value propositions for the sales and marketing departments, enhancing their competitive selling strategies.</t>
+  </si>
+  <si>
+    <t>Signal Processing Engineering Intern</t>
+  </si>
+  <si>
+    <t>Signal Processing and Feature Extraction for Radio-Wave-based Sensors</t>
+  </si>
+  <si>
+    <t>TerraWave</t>
+  </si>
+  <si>
+    <t>Applied advanced signal processing techniques, including filtering and Fourier analysis, to raw radio-wave sensor data to successfully extract meaningful features and identify critical patterns.</t>
+  </si>
+  <si>
+    <t>Developed and documented custom data processing algorithms and scripts in Python to automate the analysis of field data, improving the efficiency and accuracy of feature extraction.</t>
+  </si>
+  <si>
+    <t>Authored a comprehensive technical report detailing the methodologies used and presented findings that provided key recommendations for optimizing future sensor deployments and data collection strategies.</t>
+  </si>
+  <si>
+    <t>Data Analysis Intern</t>
+  </si>
+  <si>
+    <t>Analyzed large datasets from radio-wave sensors to identify trends, patterns, and anomalies that were used to improve the accuracy and reliability of sensor readings in the field.</t>
+  </si>
+  <si>
+    <t>Contributed to the development of more efficient data processing algorithms by identifying bottlenecks in the existing analysis workflow and proposing optimized solutions.</t>
+  </si>
+  <si>
+    <t>Created detailed data visualizations to communicate complex findings to a non-technical audience, ensuring the project's insights could be used to inform broader business decisions.</t>
+  </si>
+  <si>
+    <t>Medical Device Engineering Intern</t>
+  </si>
+  <si>
+    <t>Component Selection and Sizing for Medical Device Application</t>
+  </si>
+  <si>
+    <t>SonoMed Innovations</t>
+  </si>
+  <si>
+    <t>Analyzed the complex functional and performance requirements for a new medical device, defining key technical parameters for power consumption, size constraints, and biocompatibility.</t>
+  </si>
+  <si>
+    <t>Conducted extensive research and comparative analysis of various electronic and mechanical components, evaluating them against system objectives based on cost, availability, and reliability data.</t>
+  </si>
+  <si>
+    <t>Authored a detailed technical report with full justification for the component selection process and delivered a presentation that demonstrated how the chosen parts ensured optimal performance and integration.</t>
+  </si>
+  <si>
+    <t>Component Sizing Intern</t>
+  </si>
+  <si>
+    <t>Performed critical calculations and simulations to ensure the proper sizing and selection of mechanical and electronic components to meet the stringent requirements of a medical device application.</t>
+  </si>
+  <si>
+    <t>Developed a decision-making matrix to systematically evaluate potential components, ensuring a transparent and evidence-based selection process that aligned with system goals.</t>
+  </si>
+  <si>
+    <t>Collaborated with a cross-functional team to ensure all selected components were optimally integrated, mitigating risks related to compatibility and performance before the prototyping phase.</t>
+  </si>
+  <si>
+    <t>PME</t>
+  </si>
+  <si>
+    <t>Process Optimization Intern</t>
+  </si>
+  <si>
+    <t>Digital Batch Record Process Optimization</t>
+  </si>
+  <si>
+    <t>Cosmetica Labs</t>
+  </si>
+  <si>
+    <t>Mississauga, Ontario</t>
+  </si>
+  <si>
+    <t>Created a detailed end-to-end process map of the current digital batch record workflow, successfully identifying four key bottlenecks where manual processes created data-entry delays.</t>
+  </si>
+  <si>
+    <t>Authored a comprehensive report on system inefficiencies, providing three actionable, data-driven recommendations for process improvements to better align the digital system with manual operations.</t>
+  </si>
+  <si>
+    <t>Presented findings and proposed solutions to project stakeholders, outlining a clear strategy to enhance the user-friendliness of the system, minimize errors, and maximize production throughput.</t>
+  </si>
+  <si>
+    <t>Digital Systems Internship</t>
+  </si>
+  <si>
+    <t>Analyzed the integration between a new digital batch record software and existing manual processes, identifying critical gaps that led to a 15% increase in processing time.</t>
+  </si>
+  <si>
+    <t>Developed and proposed a streamlined workflow that reduced redundant steps, ensuring a smoother transition from manual to digital operations and enhancing overall productivity.</t>
+  </si>
+  <si>
+    <t>Collaborated with the IT and production teams to ensure that proposed changes were technically feasible and met the operational needs of the end-users.</t>
+  </si>
+  <si>
+    <t>Engineering Project Management Intern</t>
+  </si>
+  <si>
+    <t>Leafcutter Bee Cocoon Preservation System</t>
+  </si>
+  <si>
+    <t>TNT Pollination</t>
+  </si>
+  <si>
+    <t>Guelph, Ontario</t>
+  </si>
+  <si>
+    <t>Conducted a comprehensive feasibility study on a novel cocoon preservation system, researching and comparing existing storage technologies to meet specific atmospheric (10% oxygen) and temperature (6°C) requirements.</t>
+  </si>
+  <si>
+    <t>Developed a detailed prototype design for a scalable system capable of preserving up to 5,000 gallons of leafcutter bee cocoons, directly addressing the project's goal to reduce annual bee loss and waste.</t>
+  </si>
+  <si>
+    <t>Authored a complete feasibility analysis report that projected a 20% reduction in costs, detailing the commercial scalability and cost-effectiveness of the proposed solution to guide a major capital investment decision.</t>
+  </si>
+  <si>
+    <t>Agricultural Engineering Intern</t>
+  </si>
+  <si>
+    <t>Translated peer-reviewed scientific data on bee preservation into tangible engineering requirements for a commercial-scale agricultural storage solution, ensuring the project was grounded in proven research.</t>
+  </si>
+  <si>
+    <t>Managed the research and documentation phase of the project, compiling a report on existing storage technologies that became the foundational document for the prototype design phase.</t>
+  </si>
+  <si>
+    <t>Contributed to the project's goal of providing greater flexibility for pollinators by designing a system that could significantly extend the viability of cocoons for use in the following agricultural year.</t>
+  </si>
+  <si>
+    <t>Quality Assurance Internship</t>
+  </si>
+  <si>
+    <t>Platform Testing and Pilot Evaluation</t>
+  </si>
+  <si>
+    <t>Aben hub</t>
+  </si>
+  <si>
+    <t>Executed over 50 hours of functional and usability testing on a new partner collaboration platform, simulating real-world scenarios to identify and document critical software bugs and UX deficiencies.</t>
+  </si>
+  <si>
+    <t>Served as a key liaison with three pilot partners, systematically collecting, triaging, and analyzing user feedback to identify common pain points and inform the development roadmap.</t>
+  </si>
+  <si>
+    <t>Compiled a comprehensive testing report with a prioritized list of actionable recommendations, which was presented to the project team and adopted to enhance platform stability before its official launch.</t>
+  </si>
+  <si>
+    <t>Platform Testing Intern</t>
+  </si>
+  <si>
+    <t>Designed and documented detailed testing procedures for a new software platform, ensuring consistent and repeatable quality assurance processes throughout the pilot phase.</t>
+  </si>
+  <si>
+    <t>Identified and reported 15 major bugs and 25 minor usability issues, providing clear, reproducible steps and proposed solutions that accelerated the development team's debugging process.</t>
+  </si>
+  <si>
+    <t>Analyzed qualitative and quantitative data from pilot partners to create a final report that provided a clear, evidence-based case for specific platform improvements.</t>
+  </si>
+  <si>
+    <t>CHC</t>
+  </si>
+  <si>
+    <t>Community Health Advocate Intern</t>
+  </si>
+  <si>
+    <t>Sickle Cell Awareness Youth Program</t>
+  </si>
+  <si>
+    <t>Sickle Cell Anemia Canada</t>
+  </si>
+  <si>
+    <t>8 weeks</t>
+  </si>
+  <si>
+    <t>Developed and delivered educational workshops on advocacy and public speaking, empowering youth with sickle cell disease to become effective advocates for their own health needs within the community.</t>
+  </si>
+  <si>
+    <t>Managed a $5,000 grant to support youth-led community projects, directly facilitating five initiatives that raised local awareness and education about Sickle Cell Disease.</t>
+  </si>
+  <si>
+    <t>Coordinated with Subject-Matter Experts to create an engaging curriculum focused on building leadership and conflict management skills, enhancing the capacity of youth to lead community health initiatives.</t>
+  </si>
+  <si>
+    <t>Youth Program Coordinator</t>
+  </si>
+  <si>
+    <t>Planned and executed a community-based youth program focused on health education and capacity building for a vulnerable population, resulting in a 30% increase in participant engagement.</t>
+  </si>
+  <si>
+    <t>Implemented a comprehensive M&amp;E plan using pre- and post-program surveys to measure the program's impact on health literacy and self-advocacy skills among participants.</t>
+  </si>
+  <si>
+    <t>Fostered a supportive and inclusive environment that promoted community belonging and peer support for youth living with a chronic illness, adhering to all organizational guidelines.</t>
+  </si>
+  <si>
+    <t>Health Accessibility Analyst</t>
+  </si>
+  <si>
+    <t>Global Market Analysis for Pharmaceutical Accessibility</t>
+  </si>
+  <si>
+    <t>MedsVilla</t>
+  </si>
+  <si>
+    <t>Conducted a detailed market analysis of the USA, UK, Australia, and Japan to identify systemic barriers, such as regulatory hurdles and pricing strategies, that limit community access to essential medications.</t>
+  </si>
+  <si>
+    <t>Developed a comprehensive report with actionable recommendations for improving pharmaceutical accessibility and affordability for diverse global populations, directly addressing health equity issues.</t>
+  </si>
+  <si>
+    <t>Analyzed international healthcare systems and distribution channels to provide strategic insights on how to optimize market strategies to better serve underserved communities.</t>
+  </si>
+  <si>
+    <t>Global Health Equity Intern</t>
+  </si>
+  <si>
+    <t>Researched and reported on the socio-economic factors and regulatory environments in four key countries that impact the affordability and accessibility of pain management medications at the community level.</t>
+  </si>
+  <si>
+    <t>Contributed to a global health initiative by providing data-driven insights that informed strategies to reduce disparities in access to pharmaceuticals across international markets.</t>
+  </si>
+  <si>
+    <t>Presented findings on how different pricing strategies affect customer access to medication, advocating for models that prioritize public health and community well-being.</t>
+  </si>
+  <si>
+    <t>Community Outreach Coordinator</t>
+  </si>
+  <si>
+    <t>Senior Homecare Outreach Enhancement</t>
+  </si>
+  <si>
+    <t>Salyx Health</t>
+  </si>
+  <si>
+    <t>Developed and implemented a targeted community outreach strategy to connect senior clients and their caregivers with vital homecare services, resulting in a 15% increase in client inquiries.</t>
+  </si>
+  <si>
+    <t>Created culturally sensitive and accessible marketing materials, including brochures and digital content, to effectively communicate the value of homecare offerings to a diverse senior population.</t>
+  </si>
+  <si>
+    <t>Conducted a thorough needs assessment of the local senior homecare market, analyzing competitor strategies and identifying gaps in service to inform a more effective and empathetic outreach approach.</t>
+  </si>
+  <si>
+    <t>Senior Health Navigator Intern</t>
+  </si>
+  <si>
+    <t>Analyzed current outreach methods to identify and eliminate barriers preventing seniors from accessing homecare information, improving the clarity and effectiveness of communication channels.</t>
+  </si>
+  <si>
+    <t>Crafted compelling and clear messaging designed to resonate with seniors and their caregivers, ensuring that information about available health services was easily understood and valued.</t>
+  </si>
+  <si>
+    <t>Compiled a comprehensive outreach strategy document with actionable recommendations, providing Salyx Health with the tools to build stronger trust and enhance its presence within the community.</t>
+  </si>
+  <si>
+    <t>DMC</t>
+  </si>
+  <si>
+    <t>Digital Marketing Coordinator Intern</t>
+  </si>
+  <si>
+    <t>Digital Marketing Content Creation</t>
+  </si>
+  <si>
+    <t>Canada Online Tutoring</t>
+  </si>
+  <si>
+    <t>Architected and executed a multi-channel content campaign, producing a diverse portfolio of high-performing creative assets—including video reels, social media posts, and a targeted email newsletter—to drive engagement and conversions.</t>
+  </si>
+  <si>
+    <t>Developed a full-funnel digital campaign framework, defining core KPIs, channel mix, and content distribution timelines to ensure measurable ROI and alignment with strategic business objectives.</t>
+  </si>
+  <si>
+    <t>Business Development &amp; Marketing Intern</t>
+  </si>
+  <si>
+    <t>New Market Research and Lead Generation</t>
+  </si>
+  <si>
+    <t>Mrkt360</t>
+  </si>
+  <si>
+    <t>Conducted in-depth market analysis to identify and qualify high-value industry verticals, creating a strategic roadmap for expanding the client base into previously untapped markets.</t>
+  </si>
+  <si>
+    <t>Engineered a scalable lead generation pipeline by synthesizing market research data and employing advanced prospecting techniques to build a high-quality list of decision-makers for targeted outreach.</t>
+  </si>
+  <si>
+    <t>Devised and executed a strategic sales outreach strategy, successfully converting cold leads into qualified prospects and securing key meetings to demonstrate the value proposition of core digital marketing services (SEO, SEM, SMM).</t>
+  </si>
+  <si>
+    <t>Digital Marketing Strategist Intern</t>
+  </si>
+  <si>
+    <t>Digital Marketing Strategy Enhancement</t>
+  </si>
+  <si>
+    <t>TGT Solutions</t>
+  </si>
+  <si>
+    <t>Executed a full-scale digital marketing audit, leveraging analytics and consumer behavior data to pinpoint critical gaps and strategic opportunities for enhancing brand visibility and market penetration.</t>
+  </si>
+  <si>
+    <t>Architected a comprehensive, data-driven digital strategy with actionable recommendations for optimizing the marketing mix across SEO, social media, and content marketing to boost customer engagement.</t>
+  </si>
+  <si>
+    <t>Formulated a sophisticated plan to refine audience targeting and optimize the end-to-end digital customer journey, creating a clear roadmap to increase brand resonance and drive measurable growth.</t>
+  </si>
+  <si>
+    <t>Led a comprehensive audit of brand positioning and target audience personas, translating key insights into a data-informed content strategy designed to accelerate user journey progression.</t>
+  </si>
+  <si>
+    <t>Toronto, ON</t>
+  </si>
+  <si>
+    <t>Toronto,ON</t>
+  </si>
+  <si>
+    <t>DevOps &amp; QA Intern</t>
+  </si>
+  <si>
+    <t>Software Development Lifecycle Enhancement</t>
+  </si>
+  <si>
+    <t>CED Systems LLC</t>
+  </si>
+  <si>
+    <t>Toronto</t>
+  </si>
+  <si>
+    <t>Conducted a comprehensive analysis of the existing SDLC, identifying key bottlenecks and proposing a strategic shift towards agile methodologies and user-centered design to boost development velocity and product quality.</t>
+  </si>
+  <si>
+    <t>Architected and implemented a robust, automated testing framework, creating a suite of documented test cases that significantly enhanced quality assurance protocols and reduced manual testing overhead.</t>
+  </si>
+  <si>
+    <t>Delivered a detailed process enhancement report and executive presentation, successfully demonstrating how the implemented improvements would optimize the end-to-end software development lifecycle.</t>
+  </si>
+  <si>
+    <t>AI &amp; Automation Analyst Intern</t>
+  </si>
+  <si>
+    <t>AI Tool Evaluation and Implementation for Business Process Automation</t>
+  </si>
+  <si>
+    <t>Game Pill</t>
+  </si>
+  <si>
+    <t>Engineered a systematic evaluation framework to assess third-party AI tools (e.g., Lovable, Retell AI), performing a rigorous cost-benefit analysis to identify the optimal solution for business process automation.</t>
+  </si>
+  <si>
+    <t>Designed and executed a real-world testing pipeline to validate AI tool capabilities in a live environment, ensuring seamless integration and alignment with Game Pill's operational requirements.</t>
+  </si>
+  <si>
+    <t>Developed a strategic implementation roadmap detailing the phased integration of the selected AI tool to streamline key business processes, projecting significant gains in operational efficiency.</t>
+  </si>
+  <si>
+    <t>IT Strategy &amp; Transformation Intern</t>
+  </si>
+  <si>
+    <t>Tech Enhancement Strategy</t>
+  </si>
+  <si>
+    <t>Genesis Jewellry Boutique</t>
+  </si>
+  <si>
+    <t>Executed a comprehensive audit of the current technology infrastructure, identifying critical vulnerabilities and misalignments with strategic business objectives for customer engagement and operational efficiency.</t>
+  </si>
+  <si>
+    <t>Formulated a set of actionable, high-impact recommendations for a modernized technology stack, including specific software and hardware upgrades to enhance core systems like CRM and inventory management.</t>
+  </si>
+  <si>
+    <t>Developed and presented a full-scale implementation plan to senior management, outlining a phased adoption strategy, precise cost estimates, and timelines to guide the boutique's digital transformation.</t>
+  </si>
+  <si>
+    <t>FSC</t>
+  </si>
+  <si>
+    <t>Financial Operations Analyst Intern</t>
+  </si>
+  <si>
+    <t>Financial System Setup</t>
+  </si>
+  <si>
+    <t>HUSH DOLL HAUSE INC</t>
+  </si>
+  <si>
+    <t>Architected a robust financial framework from the ground up, designing a streamlined system to systematize income/expense tracking and enhance financial data integrity.</t>
+  </si>
+  <si>
+    <t>Developed a suite of dynamic reporting tools, including a cash flow visibility report and simplified templates for financial statements, to support informed, data-driven decision-making.</t>
+  </si>
+  <si>
+    <t>Authored a comprehensive user guide to drive the adoption of the new system, ensuring a seamless operational transition and empowering the company with enhanced financial management capabilities.</t>
+  </si>
+  <si>
+    <t>Financial Planning &amp; Analysis Intern</t>
+  </si>
+  <si>
+    <t>Financial Framework Development</t>
+  </si>
+  <si>
+    <t>Bootsy Entertainment Group</t>
+  </si>
+  <si>
+    <t>Engineered a comprehensive cost accounting framework, establishing a standardized chart of accounts and a sophisticated job-costing model to enable precise cost allocation and profitability analysis across all projects.</t>
+  </si>
+  <si>
+    <t>Constructed a dynamic cash-flow forecasting model to project liquidity and anticipate financial needs, empowering the leadership team with the foresight for proactive capital management.</t>
+  </si>
+  <si>
+    <t>Developed an interactive KPI dashboard to translate complex financial data into actionable, real-time insights, directly supporting strategic decision-making and sustainable growth initiatives.</t>
+  </si>
+  <si>
+    <t>Business Strategy &amp; Finance Intern</t>
+  </si>
+  <si>
+    <t>Business Plan and Financial Forecasting</t>
+  </si>
+  <si>
+    <t>Talmudy</t>
+  </si>
+  <si>
+    <t>Conducted in-depth market and competitive analysis to identify key growth opportunities, informing the development of a strategic business plan designed to secure a competitive advantage in the ed-tech sector.</t>
+  </si>
+  <si>
+    <t>Built a comprehensive multi-year financial model, projecting revenue streams, operating expenses, and cash flows to provide a clear, data-backed roadmap for sustainable growth and investment readiness.</t>
+  </si>
+  <si>
+    <t>Synthesized all strategic and financial analyses into an investor-grade business plan and forecasting report, culminating in a final presentation that delivered actionable insights to guide Talmudy's future growth.</t>
+  </si>
+  <si>
+    <t>Financial Strategy for New Product Launch</t>
+  </si>
+  <si>
+    <t>Drastic Drink</t>
+  </si>
+  <si>
+    <t>Revamped the company’s business plan to be investor-ready and built a qualified pipeline of potential investors, government grants, and funding opportunities to secure seed capital for a new product launch.</t>
+  </si>
+  <si>
+    <t>Formulated a comprehensive go-to-market financial strategy, which included identifying and vetting potential supply chain vendors and optimizing customer invoicing processes to maximize day-one operational efficiency.</t>
+  </si>
+  <si>
+    <t>Conducted a thorough risk assessment of the new product launch, analyzing internal business process implications across marketing, sales, and customer experience to ensure a successful and profitable market entry.</t>
+  </si>
+  <si>
+    <t>Financial Analyst Intern</t>
+  </si>
+  <si>
+    <t>FSCEF</t>
+  </si>
+  <si>
+    <t>LC</t>
+  </si>
+  <si>
+    <t>AI Business Development Intern</t>
+  </si>
+  <si>
+    <t>AI-Driven B2B Customer Discovery and Development</t>
+  </si>
+  <si>
+    <t>Ada Analytics</t>
+  </si>
+  <si>
+    <t>Developed and executed a strategic outreach plan to engage key decision-makers, leveraging network analysis to build a robust pipeline of qualified partnership opportunities.</t>
+  </si>
+  <si>
+    <t>Successfully secured multiple Letters of Intent and pilot program commitments, directly validating the AI solution's market fit and creating a foundational client base for future growth.</t>
+  </si>
+  <si>
+    <t>Growth Strategy Analyst Intern</t>
+  </si>
+  <si>
+    <t>Scaling Financial Strategy</t>
+  </si>
+  <si>
+    <t>Bloomin' Bliss Bath &amp; Spa Works</t>
+  </si>
+  <si>
+    <t>Conducted a deep-dive financial analysis to deconstruct current profit margins and identify the key financial levers required to transition from a local business to a scalable enterprise.</t>
+  </si>
+  <si>
+    <t>Architected a dynamic, multi-channel pricing strategy optimized for both retail and wholesale expansion, ensuring sustained profitability and competitive market positioning during rapid growth.</t>
+  </si>
+  <si>
+    <t>Developed a comprehensive long-range financial forecast that provided a strategic roadmap for the company's expansion, modeling capital requirements and revenue projections to guide executive decision-making.</t>
+  </si>
+  <si>
+    <t>Investment Banking Analyst Intern</t>
+  </si>
+  <si>
+    <t>Capital Raising Support: CIM and Financial Model Development</t>
+  </si>
+  <si>
+    <t>Fifteen North Solutions Inc</t>
+  </si>
+  <si>
+    <t>Authored an investor-grade Confidential Information Memorandum (CIM), synthesizing complex company data to articulate a compelling narrative on the business model, market position, and growth strategy.</t>
+  </si>
+  <si>
+    <t>Constructed a sophisticated, multi-scenario financial model with detailed projections, designed to withstand institutional due diligence and clearly demonstrate potential returns to lenders and equity partners.</t>
+  </si>
+  <si>
+    <t>Engineered a full suite of capital raising materials that effectively communicated the company's value proposition, directly supporting the firm's efforts to attract and secure strategic investment.</t>
+  </si>
+  <si>
+    <t>Led a market validation initiative for a novel AI prototype, identifying high-potential B2B client segments and refining the core value proposition for maximum industry impact.</t>
+  </si>
+  <si>
+    <t>SCC</t>
+  </si>
+  <si>
+    <t>Supply Chain Data Analyst Intern</t>
+  </si>
+  <si>
+    <t>Optimization of inventory</t>
+  </si>
+  <si>
+    <t>Trust Clarity</t>
+  </si>
+  <si>
+    <t>Engineered a suite of dynamic dashboards to analyze customer purchasing behavior, transforming raw order history into actionable insights on sales trends and brand performance.</t>
+  </si>
+  <si>
+    <t>Developed a predictive recommendation engine that systematically matches customer purchasing profiles with available inventory, creating a scalable pipeline for targeted and automated marketing campaigns.</t>
+  </si>
+  <si>
+    <t>Logistics Analyst Intern</t>
+  </si>
+  <si>
+    <t>Optimizing Logistics for VR headset distribution</t>
+  </si>
+  <si>
+    <t>UnVRap</t>
+  </si>
+  <si>
+    <t>Conducted a thorough, data-driven analysis of the end-to-end distribution network for VR headsets, identifying critical inefficiencies in current shipping processes to clinics and universities.</t>
+  </si>
+  <si>
+    <t>Formulated a strategic cost-reduction plan by applying data science techniques to logistics data, projecting significant improvements in economic sustainability and profit enhancement.</t>
+  </si>
+  <si>
+    <t>Delivered a set of high-impact, actionable recommendations to senior management, providing a clear roadmap to streamline logistics operations and optimize the supply chain for cost and timeliness.</t>
+  </si>
+  <si>
+    <t>Operations Strategy Intern</t>
+  </si>
+  <si>
+    <t>Order Fulfillment Process Mapping and Cost Analysis</t>
+  </si>
+  <si>
+    <t>Eco2Bureau</t>
+  </si>
+  <si>
+    <t>Executed a detailed comparative cost analysis between in-house warehousing and a partial drop-shipping model, quantifying the financial impact of each strategy on the company's bottom line.</t>
+  </si>
+  <si>
+    <t>Delivered a data-backed recommendation for an optimized logistics strategy, providing a clear path to enhance efficiency, reduce operational costs, and improve customer satisfaction.</t>
+  </si>
+  <si>
+    <t>Executed a comprehensive data overhaul of the global product catalog, standardizing categories and implementing an ABC classification system to provide visibility into inventory value.</t>
+  </si>
+  <si>
+    <t>Led a comprehensive process mapping initiative of the end-to-end order fulfillment cycle, identifying key stakeholders and operational bottlenecks to create a baseline for strategic evaluation.</t>
+  </si>
+  <si>
+    <t>HRC</t>
+  </si>
+  <si>
+    <t>Talent Acquisition Intern</t>
+  </si>
+  <si>
+    <t>Candidate Sourcing and Pipeline Development</t>
+  </si>
+  <si>
+    <t>Jobque.ai</t>
+  </si>
+  <si>
+    <t>Developed a practical sourcing plan using platforms like LinkedIn, job boards, and social media to find and attract qualified candidates.</t>
+  </si>
+  <si>
+    <t>Built a steady pipeline of candidates for key company roles, making sure the best applicants were ready for interviews when needed.</t>
+  </si>
+  <si>
+    <t>Wrote and improved job postings to attract more suitable applicants, which made the shortlisting and selection process faster and more effective.</t>
+  </si>
+  <si>
+    <t>HR &amp; Operations Intern</t>
+  </si>
+  <si>
+    <t>Streamlined Recruitment and Onboarding</t>
+  </si>
+  <si>
+    <t>Limitless Pet &amp; Home Care</t>
+  </si>
+  <si>
+    <t>Redesigned the hiring process for contractors using ActiveCampaign, automating key communication steps to speed up recruitment.</t>
+  </si>
+  <si>
+    <t>Created a new set of interview questions focused on company values and job skills, leading to more consistent and reliable hiring decisions.</t>
+  </si>
+  <si>
+    <t>Produced a full video training series and quiz for new hires, creating a standard and effective onboarding process that helped contractors get started quickly.</t>
+  </si>
+  <si>
+    <t>Organizational Development Intern</t>
+  </si>
+  <si>
+    <t>Employee Engagement and Organizational Assessment Survey Design</t>
+  </si>
+  <si>
+    <t>Volta Electrique</t>
+  </si>
+  <si>
+    <t>Designed a detailed employee survey to measure job satisfaction and get honest feedback on internal company processes and management.</t>
+  </si>
+  <si>
+    <t>Built the survey to provide clear, useful results that management could act on, including specific metrics on workplace culture.</t>
+  </si>
+  <si>
+    <t>Delivered a ready-to-use survey that gives leadership the information needed to make specific improvements to the work environment.</t>
+  </si>
+  <si>
+    <t>HR Generalist Intern</t>
+  </si>
+  <si>
+    <t>Human Resources Management</t>
+  </si>
+  <si>
+    <t>U+ Education</t>
+  </si>
+  <si>
+    <t>Led the project to update the company’s HR handbook, researching modern HR practices to improve policies for the entire employee journey.</t>
+  </si>
+  <si>
+    <t>Took an active role in recruitment by analyzing job needs, screening candidates in the applicant tracking system (ATS), and scheduling interviews.</t>
+  </si>
+  <si>
+    <t>Reviewed and improved the existing HR procedures (SOPs), documenting the changes to create a more efficient and consistent process for the team.</t>
+  </si>
+  <si>
+    <t>Product Engineer Intern</t>
+  </si>
+  <si>
+    <t>Conducted a detailed technical analysis of competitor linear actuators, comparing key performance metrics and hardware specifications against our own product line.</t>
+  </si>
+  <si>
+    <t>Created a comprehensive competitive replacement chart to serve as a practical tool for the sales team to quickly identify equivalent products for customers.</t>
+  </si>
+  <si>
+    <t>Presented key findings on the competitive landscape to the R&amp;D, sales, and marketing teams, providing clear data to inform future product and sales strategies.</t>
+  </si>
+  <si>
+    <t>Signal Processing Intern</t>
+  </si>
+  <si>
+    <t>Applied advanced signal processing techniques to analyze raw data from radio-wave sensors, successfully filtering out noise to isolate meaningful information.</t>
+  </si>
+  <si>
+    <t>Identified and extracted key features, patterns, and anomalies from the sensor data to better understand field performance and data accuracy.</t>
+  </si>
+  <si>
+    <t>Wrote and documented the analysis scripts used in the project and delivered a final report with practical recommendations for improving future data processing methods.</t>
+  </si>
+  <si>
+    <t>Analyzed the complex system requirements for a new medical device, defining the critical technical parameters for all electronic and mechanical components.</t>
+  </si>
+  <si>
+    <t>Researched and evaluated a variety of components from different suppliers, carefully balancing performance, reliability, availability, and cost to make the best selections.</t>
+  </si>
+  <si>
+    <t>Wrote a detailed technical report that justified the final component choices, clearly explaining how they would integrate to meet the device's specific performance goals.</t>
+  </si>
+  <si>
+    <t>Design Engineer Intern</t>
+  </si>
+  <si>
+    <t>MSFE</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -316,6 +1028,12 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -722,6 +1440,10 @@
 </styleSheet>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -1039,13 +1761,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8819181E-93CF-4B76-AA4C-A9430A9F3BB8}">
-  <dimension ref="A1:I11"/>
+  <dimension ref="A1:J58"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="E54" sqref="D54:E56"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="3" max="3" width="35.6328125" customWidth="1"/>
+    <col min="4" max="4" width="42.6328125" customWidth="1"/>
+    <col min="5" max="5" width="27" customWidth="1"/>
+    <col min="6" max="6" width="14.54296875" customWidth="1"/>
+    <col min="7" max="7" width="19.81640625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1053,28 +1784,31 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1082,28 +1816,31 @@
         <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>10</v>
+        <v>165</v>
       </c>
       <c r="D2" t="s">
-        <v>11</v>
+        <v>166</v>
       </c>
       <c r="E2" t="s">
-        <v>12</v>
+        <v>167</v>
       </c>
       <c r="F2" t="s">
-        <v>13</v>
+        <v>116</v>
       </c>
       <c r="G2" t="s">
-        <v>14</v>
+        <v>168</v>
       </c>
       <c r="H2" t="s">
-        <v>15</v>
+        <v>169</v>
       </c>
       <c r="I2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+        <v>170</v>
+      </c>
+      <c r="J2" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1111,28 +1848,31 @@
         <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>10</v>
+        <v>172</v>
       </c>
       <c r="D3" t="s">
-        <v>11</v>
+        <v>173</v>
       </c>
       <c r="E3" t="s">
-        <v>12</v>
+        <v>174</v>
       </c>
       <c r="F3" t="s">
-        <v>13</v>
+        <v>116</v>
       </c>
       <c r="G3" t="s">
-        <v>17</v>
+        <v>168</v>
       </c>
       <c r="H3" t="s">
-        <v>18</v>
+        <v>175</v>
       </c>
       <c r="I3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+        <v>176</v>
+      </c>
+      <c r="J3" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1140,231 +1880,1760 @@
         <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>10</v>
+        <v>178</v>
       </c>
       <c r="D4" t="s">
-        <v>11</v>
+        <v>179</v>
       </c>
       <c r="E4" t="s">
-        <v>12</v>
+        <v>180</v>
       </c>
       <c r="F4" t="s">
-        <v>13</v>
+        <v>116</v>
       </c>
       <c r="G4" t="s">
-        <v>20</v>
+        <v>168</v>
       </c>
       <c r="H4" t="s">
-        <v>21</v>
+        <v>181</v>
       </c>
       <c r="I4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+        <v>182</v>
+      </c>
+      <c r="J4" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="E5" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="F5" t="s">
-        <v>25</v>
+        <v>116</v>
       </c>
       <c r="G5" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="H5" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="I5" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+        <v>17</v>
+      </c>
+      <c r="J5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D6" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="E6" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="F6" t="s">
-        <v>25</v>
+        <v>116</v>
       </c>
       <c r="G6" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="H6" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="I6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+        <v>21</v>
+      </c>
+      <c r="J6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C7" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="D7" t="s">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="E7" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="F7" t="s">
+        <v>116</v>
+      </c>
+      <c r="G7" t="s">
+        <v>10</v>
+      </c>
+      <c r="H7" t="s">
+        <v>24</v>
+      </c>
+      <c r="I7" t="s">
         <v>25</v>
       </c>
-      <c r="G7" t="s">
-        <v>34</v>
-      </c>
-      <c r="H7" t="s">
-        <v>35</v>
-      </c>
-      <c r="I7" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="J7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" t="s">
+        <v>28</v>
+      </c>
+      <c r="E8" t="s">
+        <v>29</v>
+      </c>
+      <c r="F8" t="s">
+        <v>116</v>
+      </c>
+      <c r="G8" t="s">
+        <v>10</v>
+      </c>
+      <c r="H8" t="s">
+        <v>30</v>
+      </c>
+      <c r="I8" t="s">
+        <v>31</v>
+      </c>
+      <c r="J8" t="s">
         <v>32</v>
       </c>
-      <c r="D8" t="s">
-        <v>33</v>
-      </c>
-      <c r="E8" t="s">
-        <v>12</v>
-      </c>
-      <c r="F8" t="s">
-        <v>25</v>
-      </c>
-      <c r="G8" t="s">
-        <v>37</v>
-      </c>
-      <c r="H8" t="s">
-        <v>38</v>
-      </c>
-      <c r="I8" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C9" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D9" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="E9" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="F9" t="s">
-        <v>25</v>
+        <v>116</v>
       </c>
       <c r="G9" t="s">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="H9" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="I9" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+        <v>35</v>
+      </c>
+      <c r="J9" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C10" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="D10" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="E10" t="s">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="F10" t="s">
-        <v>45</v>
+        <v>116</v>
       </c>
       <c r="G10" t="s">
-        <v>46</v>
+        <v>10</v>
       </c>
       <c r="H10" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="I10" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+        <v>41</v>
+      </c>
+      <c r="J10" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C11" t="s">
+        <v>43</v>
+      </c>
+      <c r="D11" t="s">
+        <v>38</v>
+      </c>
+      <c r="E11" t="s">
+        <v>39</v>
+      </c>
+      <c r="F11" t="s">
+        <v>116</v>
+      </c>
+      <c r="G11" t="s">
+        <v>10</v>
+      </c>
+      <c r="H11" t="s">
+        <v>44</v>
+      </c>
+      <c r="I11" t="s">
+        <v>45</v>
+      </c>
+      <c r="J11" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>47</v>
+      </c>
+      <c r="C12" t="s">
+        <v>48</v>
+      </c>
+      <c r="D12" t="s">
         <v>49</v>
       </c>
-      <c r="D11" t="s">
+      <c r="E12" t="s">
+        <v>50</v>
+      </c>
+      <c r="F12" t="s">
+        <v>116</v>
+      </c>
+      <c r="G12" t="s">
+        <v>51</v>
+      </c>
+      <c r="H12" t="s">
+        <v>52</v>
+      </c>
+      <c r="I12" t="s">
+        <v>53</v>
+      </c>
+      <c r="J12" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>47</v>
+      </c>
+      <c r="C13" t="s">
+        <v>55</v>
+      </c>
+      <c r="D13" t="s">
+        <v>49</v>
+      </c>
+      <c r="E13" t="s">
+        <v>50</v>
+      </c>
+      <c r="F13" t="s">
+        <v>116</v>
+      </c>
+      <c r="G13" t="s">
+        <v>51</v>
+      </c>
+      <c r="H13" t="s">
+        <v>56</v>
+      </c>
+      <c r="I13" t="s">
+        <v>57</v>
+      </c>
+      <c r="J13" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>47</v>
+      </c>
+      <c r="C14" t="s">
+        <v>59</v>
+      </c>
+      <c r="D14" t="s">
+        <v>60</v>
+      </c>
+      <c r="E14" t="s">
+        <v>61</v>
+      </c>
+      <c r="F14" t="s">
+        <v>116</v>
+      </c>
+      <c r="G14" t="s">
+        <v>10</v>
+      </c>
+      <c r="H14" t="s">
+        <v>62</v>
+      </c>
+      <c r="I14" t="s">
+        <v>63</v>
+      </c>
+      <c r="J14" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>47</v>
+      </c>
+      <c r="C15" t="s">
+        <v>65</v>
+      </c>
+      <c r="D15" t="s">
+        <v>60</v>
+      </c>
+      <c r="E15" t="s">
+        <v>61</v>
+      </c>
+      <c r="F15" t="s">
+        <v>116</v>
+      </c>
+      <c r="G15" t="s">
+        <v>10</v>
+      </c>
+      <c r="H15" t="s">
+        <v>66</v>
+      </c>
+      <c r="I15" t="s">
+        <v>67</v>
+      </c>
+      <c r="J15" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>47</v>
+      </c>
+      <c r="C16" t="s">
+        <v>69</v>
+      </c>
+      <c r="D16" t="s">
+        <v>70</v>
+      </c>
+      <c r="E16" t="s">
+        <v>71</v>
+      </c>
+      <c r="F16" t="s">
+        <v>116</v>
+      </c>
+      <c r="G16" t="s">
+        <v>10</v>
+      </c>
+      <c r="H16" t="s">
+        <v>72</v>
+      </c>
+      <c r="I16" t="s">
+        <v>73</v>
+      </c>
+      <c r="J16" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>47</v>
+      </c>
+      <c r="C17" t="s">
+        <v>75</v>
+      </c>
+      <c r="D17" t="s">
+        <v>70</v>
+      </c>
+      <c r="E17" t="s">
+        <v>71</v>
+      </c>
+      <c r="F17" t="s">
+        <v>116</v>
+      </c>
+      <c r="G17" t="s">
+        <v>10</v>
+      </c>
+      <c r="H17" t="s">
+        <v>76</v>
+      </c>
+      <c r="I17" t="s">
+        <v>77</v>
+      </c>
+      <c r="J17" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>79</v>
+      </c>
+      <c r="C18" t="s">
+        <v>80</v>
+      </c>
+      <c r="D18" t="s">
+        <v>81</v>
+      </c>
+      <c r="E18" t="s">
+        <v>82</v>
+      </c>
+      <c r="F18" t="s">
+        <v>116</v>
+      </c>
+      <c r="G18" t="s">
+        <v>83</v>
+      </c>
+      <c r="H18" t="s">
+        <v>84</v>
+      </c>
+      <c r="I18" t="s">
+        <v>85</v>
+      </c>
+      <c r="J18" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>79</v>
+      </c>
+      <c r="C19" t="s">
+        <v>87</v>
+      </c>
+      <c r="D19" t="s">
+        <v>81</v>
+      </c>
+      <c r="E19" t="s">
+        <v>82</v>
+      </c>
+      <c r="F19" t="s">
+        <v>116</v>
+      </c>
+      <c r="G19" t="s">
+        <v>83</v>
+      </c>
+      <c r="H19" t="s">
+        <v>88</v>
+      </c>
+      <c r="I19" t="s">
+        <v>89</v>
+      </c>
+      <c r="J19" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>79</v>
+      </c>
+      <c r="C20" t="s">
+        <v>91</v>
+      </c>
+      <c r="D20" t="s">
+        <v>92</v>
+      </c>
+      <c r="E20" t="s">
+        <v>93</v>
+      </c>
+      <c r="F20" t="s">
+        <v>116</v>
+      </c>
+      <c r="G20" t="s">
+        <v>94</v>
+      </c>
+      <c r="H20" t="s">
+        <v>95</v>
+      </c>
+      <c r="I20" t="s">
+        <v>96</v>
+      </c>
+      <c r="J20" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>79</v>
+      </c>
+      <c r="C21" t="s">
+        <v>98</v>
+      </c>
+      <c r="D21" t="s">
+        <v>92</v>
+      </c>
+      <c r="E21" t="s">
+        <v>93</v>
+      </c>
+      <c r="F21" t="s">
+        <v>116</v>
+      </c>
+      <c r="G21" t="s">
+        <v>94</v>
+      </c>
+      <c r="H21" t="s">
+        <v>99</v>
+      </c>
+      <c r="I21" t="s">
+        <v>100</v>
+      </c>
+      <c r="J21" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>79</v>
+      </c>
+      <c r="C22" t="s">
+        <v>102</v>
+      </c>
+      <c r="D22" t="s">
+        <v>103</v>
+      </c>
+      <c r="E22" t="s">
+        <v>104</v>
+      </c>
+      <c r="F22" t="s">
+        <v>116</v>
+      </c>
+      <c r="G22" t="s">
+        <v>10</v>
+      </c>
+      <c r="H22" t="s">
+        <v>105</v>
+      </c>
+      <c r="I22" t="s">
+        <v>106</v>
+      </c>
+      <c r="J22" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>79</v>
+      </c>
+      <c r="C23" t="s">
+        <v>108</v>
+      </c>
+      <c r="D23" t="s">
+        <v>103</v>
+      </c>
+      <c r="E23" t="s">
+        <v>104</v>
+      </c>
+      <c r="F23" t="s">
+        <v>116</v>
+      </c>
+      <c r="G23" t="s">
+        <v>10</v>
+      </c>
+      <c r="H23" t="s">
+        <v>109</v>
+      </c>
+      <c r="I23" t="s">
+        <v>110</v>
+      </c>
+      <c r="J23" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>112</v>
+      </c>
+      <c r="C24" t="s">
+        <v>113</v>
+      </c>
+      <c r="D24" t="s">
+        <v>114</v>
+      </c>
+      <c r="E24" t="s">
+        <v>115</v>
+      </c>
+      <c r="F24" t="s">
+        <v>116</v>
+      </c>
+      <c r="G24" t="s">
+        <v>10</v>
+      </c>
+      <c r="H24" t="s">
+        <v>117</v>
+      </c>
+      <c r="I24" t="s">
+        <v>118</v>
+      </c>
+      <c r="J24" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>112</v>
+      </c>
+      <c r="C25" t="s">
+        <v>120</v>
+      </c>
+      <c r="D25" t="s">
+        <v>114</v>
+      </c>
+      <c r="E25" t="s">
+        <v>115</v>
+      </c>
+      <c r="F25" t="s">
+        <v>116</v>
+      </c>
+      <c r="G25" t="s">
+        <v>10</v>
+      </c>
+      <c r="H25" t="s">
+        <v>121</v>
+      </c>
+      <c r="I25" t="s">
+        <v>122</v>
+      </c>
+      <c r="J25" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" t="s">
+        <v>112</v>
+      </c>
+      <c r="C26" t="s">
+        <v>124</v>
+      </c>
+      <c r="D26" t="s">
+        <v>125</v>
+      </c>
+      <c r="E26" t="s">
+        <v>126</v>
+      </c>
+      <c r="F26" t="s">
+        <v>116</v>
+      </c>
+      <c r="G26" t="s">
+        <v>10</v>
+      </c>
+      <c r="H26" t="s">
+        <v>127</v>
+      </c>
+      <c r="I26" t="s">
+        <v>128</v>
+      </c>
+      <c r="J26" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" t="s">
+        <v>112</v>
+      </c>
+      <c r="C27" t="s">
+        <v>130</v>
+      </c>
+      <c r="D27" t="s">
+        <v>125</v>
+      </c>
+      <c r="E27" t="s">
+        <v>126</v>
+      </c>
+      <c r="F27" t="s">
+        <v>116</v>
+      </c>
+      <c r="G27" t="s">
+        <v>10</v>
+      </c>
+      <c r="H27" t="s">
+        <v>131</v>
+      </c>
+      <c r="I27" t="s">
+        <v>132</v>
+      </c>
+      <c r="J27" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28" t="s">
+        <v>112</v>
+      </c>
+      <c r="C28" t="s">
+        <v>134</v>
+      </c>
+      <c r="D28" t="s">
+        <v>135</v>
+      </c>
+      <c r="E28" t="s">
+        <v>136</v>
+      </c>
+      <c r="F28" t="s">
+        <v>116</v>
+      </c>
+      <c r="G28" t="s">
+        <v>10</v>
+      </c>
+      <c r="H28" t="s">
+        <v>137</v>
+      </c>
+      <c r="I28" t="s">
+        <v>138</v>
+      </c>
+      <c r="J28" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29" t="s">
+        <v>112</v>
+      </c>
+      <c r="C29" t="s">
+        <v>140</v>
+      </c>
+      <c r="D29" t="s">
+        <v>135</v>
+      </c>
+      <c r="E29" t="s">
+        <v>136</v>
+      </c>
+      <c r="F29" t="s">
+        <v>116</v>
+      </c>
+      <c r="G29" t="s">
+        <v>10</v>
+      </c>
+      <c r="H29" t="s">
+        <v>141</v>
+      </c>
+      <c r="I29" t="s">
+        <v>142</v>
+      </c>
+      <c r="J29" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30" t="s">
+        <v>144</v>
+      </c>
+      <c r="C30" t="s">
+        <v>145</v>
+      </c>
+      <c r="D30" t="s">
+        <v>146</v>
+      </c>
+      <c r="E30" t="s">
+        <v>147</v>
+      </c>
+      <c r="F30" t="s">
+        <v>116</v>
+      </c>
+      <c r="G30" t="s">
+        <v>163</v>
+      </c>
+      <c r="H30" t="s">
+        <v>162</v>
+      </c>
+      <c r="I30" t="s">
+        <v>148</v>
+      </c>
+      <c r="J30" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31" t="s">
+        <v>144</v>
+      </c>
+      <c r="C31" t="s">
+        <v>150</v>
+      </c>
+      <c r="D31" t="s">
+        <v>151</v>
+      </c>
+      <c r="E31" t="s">
+        <v>152</v>
+      </c>
+      <c r="F31" t="s">
+        <v>116</v>
+      </c>
+      <c r="G31" t="s">
+        <v>10</v>
+      </c>
+      <c r="H31" t="s">
+        <v>153</v>
+      </c>
+      <c r="I31" t="s">
+        <v>154</v>
+      </c>
+      <c r="J31" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32" t="s">
+        <v>144</v>
+      </c>
+      <c r="C32" t="s">
+        <v>156</v>
+      </c>
+      <c r="D32" t="s">
+        <v>157</v>
+      </c>
+      <c r="E32" t="s">
+        <v>158</v>
+      </c>
+      <c r="F32" t="s">
+        <v>116</v>
+      </c>
+      <c r="G32" t="s">
+        <v>164</v>
+      </c>
+      <c r="H32" t="s">
+        <v>159</v>
+      </c>
+      <c r="I32" t="s">
+        <v>160</v>
+      </c>
+      <c r="J32" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33" t="s">
+        <v>184</v>
+      </c>
+      <c r="C33" t="s">
+        <v>185</v>
+      </c>
+      <c r="D33" t="s">
+        <v>186</v>
+      </c>
+      <c r="E33" t="s">
+        <v>187</v>
+      </c>
+      <c r="F33" t="s">
+        <v>116</v>
+      </c>
+      <c r="G33" t="s">
+        <v>163</v>
+      </c>
+      <c r="H33" t="s">
+        <v>188</v>
+      </c>
+      <c r="I33" t="s">
+        <v>189</v>
+      </c>
+      <c r="J33" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34" t="s">
+        <v>184</v>
+      </c>
+      <c r="C34" t="s">
+        <v>191</v>
+      </c>
+      <c r="D34" t="s">
+        <v>192</v>
+      </c>
+      <c r="E34" t="s">
+        <v>193</v>
+      </c>
+      <c r="F34" t="s">
+        <v>116</v>
+      </c>
+      <c r="G34" t="s">
+        <v>10</v>
+      </c>
+      <c r="H34" t="s">
+        <v>194</v>
+      </c>
+      <c r="I34" t="s">
+        <v>195</v>
+      </c>
+      <c r="J34" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35" t="s">
+        <v>184</v>
+      </c>
+      <c r="C35" t="s">
+        <v>197</v>
+      </c>
+      <c r="D35" t="s">
+        <v>198</v>
+      </c>
+      <c r="E35" t="s">
+        <v>199</v>
+      </c>
+      <c r="F35" t="s">
+        <v>116</v>
+      </c>
+      <c r="G35" t="s">
+        <v>164</v>
+      </c>
+      <c r="H35" t="s">
+        <v>200</v>
+      </c>
+      <c r="I35" t="s">
+        <v>201</v>
+      </c>
+      <c r="J35" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36" t="s">
+        <v>184</v>
+      </c>
+      <c r="C36" t="s">
+        <v>208</v>
+      </c>
+      <c r="D36" t="s">
+        <v>203</v>
+      </c>
+      <c r="E36" t="s">
+        <v>204</v>
+      </c>
+      <c r="F36" t="s">
+        <v>116</v>
+      </c>
+      <c r="G36" t="s">
+        <v>10</v>
+      </c>
+      <c r="H36" t="s">
+        <v>205</v>
+      </c>
+      <c r="I36" t="s">
+        <v>206</v>
+      </c>
+      <c r="J36" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37" t="s">
+        <v>209</v>
+      </c>
+      <c r="C37" t="s">
+        <v>185</v>
+      </c>
+      <c r="D37" t="s">
+        <v>186</v>
+      </c>
+      <c r="E37" t="s">
+        <v>187</v>
+      </c>
+      <c r="F37" t="s">
+        <v>116</v>
+      </c>
+      <c r="G37" t="s">
+        <v>163</v>
+      </c>
+      <c r="H37" t="s">
+        <v>188</v>
+      </c>
+      <c r="I37" t="s">
+        <v>189</v>
+      </c>
+      <c r="J37" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38" t="s">
+        <v>209</v>
+      </c>
+      <c r="C38" t="s">
+        <v>191</v>
+      </c>
+      <c r="D38" t="s">
+        <v>192</v>
+      </c>
+      <c r="E38" t="s">
+        <v>193</v>
+      </c>
+      <c r="F38" t="s">
+        <v>116</v>
+      </c>
+      <c r="G38" t="s">
+        <v>10</v>
+      </c>
+      <c r="H38" t="s">
+        <v>194</v>
+      </c>
+      <c r="I38" t="s">
+        <v>195</v>
+      </c>
+      <c r="J38" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39" t="s">
+        <v>209</v>
+      </c>
+      <c r="C39" t="s">
+        <v>197</v>
+      </c>
+      <c r="D39" t="s">
+        <v>198</v>
+      </c>
+      <c r="E39" t="s">
+        <v>199</v>
+      </c>
+      <c r="F39" t="s">
+        <v>116</v>
+      </c>
+      <c r="G39" t="s">
+        <v>164</v>
+      </c>
+      <c r="H39" t="s">
+        <v>200</v>
+      </c>
+      <c r="I39" t="s">
+        <v>201</v>
+      </c>
+      <c r="J39" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40" t="s">
+        <v>209</v>
+      </c>
+      <c r="C40" t="s">
+        <v>208</v>
+      </c>
+      <c r="D40" t="s">
+        <v>203</v>
+      </c>
+      <c r="E40" t="s">
+        <v>204</v>
+      </c>
+      <c r="F40" t="s">
+        <v>116</v>
+      </c>
+      <c r="G40" t="s">
+        <v>10</v>
+      </c>
+      <c r="H40" t="s">
+        <v>205</v>
+      </c>
+      <c r="I40" t="s">
+        <v>206</v>
+      </c>
+      <c r="J40" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41" t="s">
+        <v>210</v>
+      </c>
+      <c r="C41" t="s">
+        <v>211</v>
+      </c>
+      <c r="D41" t="s">
+        <v>212</v>
+      </c>
+      <c r="E41" t="s">
+        <v>213</v>
+      </c>
+      <c r="F41" t="s">
+        <v>116</v>
+      </c>
+      <c r="G41" t="s">
+        <v>164</v>
+      </c>
+      <c r="H41" t="s">
+        <v>228</v>
+      </c>
+      <c r="I41" t="s">
+        <v>214</v>
+      </c>
+      <c r="J41" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="B42" t="s">
+        <v>210</v>
+      </c>
+      <c r="C42" t="s">
+        <v>216</v>
+      </c>
+      <c r="D42" t="s">
+        <v>217</v>
+      </c>
+      <c r="E42" t="s">
+        <v>218</v>
+      </c>
+      <c r="F42" t="s">
+        <v>116</v>
+      </c>
+      <c r="G42" t="s">
+        <v>164</v>
+      </c>
+      <c r="H42" t="s">
+        <v>219</v>
+      </c>
+      <c r="I42" t="s">
+        <v>220</v>
+      </c>
+      <c r="J42" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="B43" t="s">
+        <v>210</v>
+      </c>
+      <c r="C43" t="s">
+        <v>222</v>
+      </c>
+      <c r="D43" t="s">
+        <v>223</v>
+      </c>
+      <c r="E43" t="s">
+        <v>224</v>
+      </c>
+      <c r="F43" t="s">
+        <v>116</v>
+      </c>
+      <c r="G43" t="s">
+        <v>164</v>
+      </c>
+      <c r="H43" t="s">
+        <v>225</v>
+      </c>
+      <c r="I43" t="s">
+        <v>226</v>
+      </c>
+      <c r="J43" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A44">
+        <v>43</v>
+      </c>
+      <c r="B44" t="s">
+        <v>229</v>
+      </c>
+      <c r="C44" t="s">
+        <v>230</v>
+      </c>
+      <c r="D44" t="s">
+        <v>231</v>
+      </c>
+      <c r="E44" t="s">
+        <v>232</v>
+      </c>
+      <c r="F44" t="s">
+        <v>116</v>
+      </c>
+      <c r="G44" t="s">
+        <v>164</v>
+      </c>
+      <c r="H44" t="s">
+        <v>246</v>
+      </c>
+      <c r="I44" t="s">
+        <v>233</v>
+      </c>
+      <c r="J44" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A45">
         <v>44</v>
       </c>
-      <c r="E11" t="s">
-        <v>12</v>
-      </c>
-      <c r="F11" t="s">
+      <c r="B45" t="s">
+        <v>229</v>
+      </c>
+      <c r="C45" t="s">
+        <v>235</v>
+      </c>
+      <c r="D45" t="s">
+        <v>236</v>
+      </c>
+      <c r="E45" t="s">
+        <v>237</v>
+      </c>
+      <c r="F45" t="s">
+        <v>116</v>
+      </c>
+      <c r="G45" t="s">
+        <v>164</v>
+      </c>
+      <c r="H45" t="s">
+        <v>238</v>
+      </c>
+      <c r="I45" t="s">
+        <v>239</v>
+      </c>
+      <c r="J45" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A46">
         <v>45</v>
       </c>
-      <c r="G11" t="s">
+      <c r="B46" t="s">
+        <v>229</v>
+      </c>
+      <c r="C46" t="s">
+        <v>241</v>
+      </c>
+      <c r="D46" t="s">
+        <v>242</v>
+      </c>
+      <c r="E46" t="s">
+        <v>243</v>
+      </c>
+      <c r="F46" t="s">
+        <v>116</v>
+      </c>
+      <c r="G46" t="s">
+        <v>164</v>
+      </c>
+      <c r="H46" t="s">
+        <v>247</v>
+      </c>
+      <c r="I46" t="s">
+        <v>244</v>
+      </c>
+      <c r="J46" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A47">
+        <v>46</v>
+      </c>
+      <c r="B47" t="s">
+        <v>248</v>
+      </c>
+      <c r="C47" t="s">
+        <v>249</v>
+      </c>
+      <c r="D47" t="s">
+        <v>250</v>
+      </c>
+      <c r="E47" t="s">
+        <v>251</v>
+      </c>
+      <c r="F47" t="s">
+        <v>116</v>
+      </c>
+      <c r="G47" t="s">
+        <v>164</v>
+      </c>
+      <c r="H47" t="s">
+        <v>252</v>
+      </c>
+      <c r="I47" t="s">
+        <v>253</v>
+      </c>
+      <c r="J47" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A48">
+        <v>47</v>
+      </c>
+      <c r="B48" t="s">
+        <v>248</v>
+      </c>
+      <c r="C48" t="s">
+        <v>255</v>
+      </c>
+      <c r="D48" t="s">
+        <v>256</v>
+      </c>
+      <c r="E48" t="s">
+        <v>257</v>
+      </c>
+      <c r="F48" t="s">
+        <v>116</v>
+      </c>
+      <c r="G48" t="s">
+        <v>164</v>
+      </c>
+      <c r="H48" t="s">
+        <v>258</v>
+      </c>
+      <c r="I48" t="s">
+        <v>259</v>
+      </c>
+      <c r="J48" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A49">
+        <v>48</v>
+      </c>
+      <c r="B49" t="s">
+        <v>248</v>
+      </c>
+      <c r="C49" t="s">
+        <v>261</v>
+      </c>
+      <c r="D49" t="s">
+        <v>262</v>
+      </c>
+      <c r="E49" t="s">
+        <v>263</v>
+      </c>
+      <c r="F49" t="s">
+        <v>116</v>
+      </c>
+      <c r="G49" t="s">
+        <v>164</v>
+      </c>
+      <c r="H49" t="s">
+        <v>264</v>
+      </c>
+      <c r="I49" t="s">
+        <v>265</v>
+      </c>
+      <c r="J49" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A50">
+        <v>49</v>
+      </c>
+      <c r="B50" t="s">
+        <v>248</v>
+      </c>
+      <c r="C50" t="s">
+        <v>267</v>
+      </c>
+      <c r="D50" t="s">
+        <v>268</v>
+      </c>
+      <c r="E50" t="s">
+        <v>269</v>
+      </c>
+      <c r="F50" t="s">
+        <v>116</v>
+      </c>
+      <c r="G50" t="s">
+        <v>164</v>
+      </c>
+      <c r="H50" t="s">
+        <v>270</v>
+      </c>
+      <c r="I50" t="s">
+        <v>271</v>
+      </c>
+      <c r="J50" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A51">
         <v>50</v>
       </c>
-      <c r="H11" t="s">
+      <c r="B51" t="s">
+        <v>47</v>
+      </c>
+      <c r="C51" t="s">
+        <v>273</v>
+      </c>
+      <c r="D51" t="s">
+        <v>49</v>
+      </c>
+      <c r="E51" t="s">
+        <v>50</v>
+      </c>
+      <c r="F51" t="s">
+        <v>116</v>
+      </c>
+      <c r="G51" t="s">
+        <v>164</v>
+      </c>
+      <c r="H51" t="s">
+        <v>274</v>
+      </c>
+      <c r="I51" t="s">
+        <v>275</v>
+      </c>
+      <c r="J51" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A52">
         <v>51</v>
       </c>
-      <c r="I11" t="s">
+      <c r="B52" t="s">
+        <v>47</v>
+      </c>
+      <c r="C52" t="s">
+        <v>277</v>
+      </c>
+      <c r="D52" t="s">
+        <v>60</v>
+      </c>
+      <c r="E52" t="s">
+        <v>61</v>
+      </c>
+      <c r="F52" t="s">
+        <v>116</v>
+      </c>
+      <c r="G52" t="s">
+        <v>164</v>
+      </c>
+      <c r="H52" t="s">
+        <v>278</v>
+      </c>
+      <c r="I52" t="s">
+        <v>279</v>
+      </c>
+      <c r="J52" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A53">
         <v>52</v>
       </c>
+      <c r="B53" t="s">
+        <v>47</v>
+      </c>
+      <c r="C53" t="s">
+        <v>284</v>
+      </c>
+      <c r="D53" t="s">
+        <v>70</v>
+      </c>
+      <c r="E53" t="s">
+        <v>71</v>
+      </c>
+      <c r="F53" t="s">
+        <v>116</v>
+      </c>
+      <c r="G53" t="s">
+        <v>164</v>
+      </c>
+      <c r="H53" t="s">
+        <v>281</v>
+      </c>
+      <c r="I53" t="s">
+        <v>282</v>
+      </c>
+      <c r="J53" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A54">
+        <v>52</v>
+      </c>
+      <c r="B54" t="s">
+        <v>285</v>
+      </c>
+      <c r="C54" t="s">
+        <v>13</v>
+      </c>
+      <c r="D54" t="s">
+        <v>14</v>
+      </c>
+      <c r="E54" t="s">
+        <v>15</v>
+      </c>
+      <c r="F54" t="s">
+        <v>116</v>
+      </c>
+      <c r="G54" t="s">
+        <v>164</v>
+      </c>
+      <c r="H54" t="s">
+        <v>16</v>
+      </c>
+      <c r="I54" t="s">
+        <v>17</v>
+      </c>
+      <c r="J54" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A55">
+        <v>52</v>
+      </c>
+      <c r="B55" t="s">
+        <v>285</v>
+      </c>
+      <c r="C55" t="s">
+        <v>19</v>
+      </c>
+      <c r="D55" t="s">
+        <v>14</v>
+      </c>
+      <c r="E55" t="s">
+        <v>15</v>
+      </c>
+      <c r="F55" t="s">
+        <v>116</v>
+      </c>
+      <c r="G55" t="s">
+        <v>164</v>
+      </c>
+      <c r="H55" t="s">
+        <v>20</v>
+      </c>
+      <c r="I55" t="s">
+        <v>21</v>
+      </c>
+      <c r="J55" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A56">
+        <v>52</v>
+      </c>
+      <c r="B56" t="s">
+        <v>285</v>
+      </c>
+      <c r="C56" t="s">
+        <v>23</v>
+      </c>
+      <c r="D56" t="s">
+        <v>14</v>
+      </c>
+      <c r="E56" t="s">
+        <v>15</v>
+      </c>
+      <c r="F56" t="s">
+        <v>116</v>
+      </c>
+      <c r="G56" t="s">
+        <v>164</v>
+      </c>
+      <c r="H56" t="s">
+        <v>24</v>
+      </c>
+      <c r="I56" t="s">
+        <v>25</v>
+      </c>
+      <c r="J56" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A57">
+        <v>52</v>
+      </c>
+      <c r="B57" t="s">
+        <v>285</v>
+      </c>
+      <c r="C57" t="s">
+        <v>27</v>
+      </c>
+      <c r="D57" t="s">
+        <v>28</v>
+      </c>
+      <c r="E57" t="s">
+        <v>29</v>
+      </c>
+      <c r="F57" t="s">
+        <v>116</v>
+      </c>
+      <c r="G57" t="s">
+        <v>164</v>
+      </c>
+      <c r="H57" t="s">
+        <v>30</v>
+      </c>
+      <c r="I57" t="s">
+        <v>31</v>
+      </c>
+      <c r="J57" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A58">
+        <v>52</v>
+      </c>
+      <c r="B58" t="s">
+        <v>285</v>
+      </c>
+      <c r="C58" t="s">
+        <v>33</v>
+      </c>
+      <c r="D58" t="s">
+        <v>28</v>
+      </c>
+      <c r="E58" t="s">
+        <v>29</v>
+      </c>
+      <c r="F58" t="s">
+        <v>116</v>
+      </c>
+      <c r="G58" t="s">
+        <v>164</v>
+      </c>
+      <c r="H58" t="s">
+        <v>34</v>
+      </c>
+      <c r="I58" t="s">
+        <v>35</v>
+      </c>
+      <c r="J58" t="s">
+        <v>36</v>
+      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>